--- a/data_output/prism_passive/all_passive_out_length_msc_GM_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_GM_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>326.05639512911063</v>
+        <v>326.056395097012</v>
       </c>
       <c r="C2">
-        <v>291.0203437315057</v>
+        <v>291.02034370125631</v>
       </c>
       <c r="D2">
-        <v>243.41099244233948</v>
+        <v>243.41099240246257</v>
       </c>
       <c r="E2">
-        <v>252.48863815456619</v>
+        <v>252.48863809617797</v>
       </c>
       <c r="F2">
-        <v>239.01999215005608</v>
+        <v>239.01999212313589</v>
       </c>
       <c r="G2">
-        <v>280.60674319616112</v>
+        <v>280.60674313485049</v>
       </c>
       <c r="H2">
-        <v>291.94227393919607</v>
+        <v>291.94227388693059</v>
       </c>
       <c r="I2">
-        <v>338.80777453166274</v>
+        <v>338.80777449093694</v>
       </c>
       <c r="J2">
-        <v>304.91490892291245</v>
+        <v>304.91490888688554</v>
       </c>
       <c r="K2">
-        <v>307.07072768932903</v>
+        <v>307.07072768231689</v>
       </c>
       <c r="L2">
-        <v>311.69542895866533</v>
+        <v>311.69542891037554</v>
       </c>
       <c r="M2">
-        <v>333.49941564766937</v>
+        <v>333.49941559199783</v>
       </c>
       <c r="N2">
-        <v>283.28127345789596</v>
+        <v>283.28127338430852</v>
       </c>
       <c r="O2">
-        <v>260.47002226933307</v>
+        <v>260.47002222422134</v>
       </c>
       <c r="P2">
-        <v>261.43076653044864</v>
+        <v>261.4307664855836</v>
       </c>
       <c r="Q2">
-        <v>344.14818103581274</v>
+        <v>344.14818098133327</v>
       </c>
       <c r="R2">
-        <v>290.73128437066498</v>
+        <v>290.73128431545058</v>
       </c>
       <c r="S2">
-        <v>328.94728237958577</v>
+        <v>328.94728235329711</v>
       </c>
       <c r="T2">
-        <v>328.71396137076169</v>
+        <v>328.71396131608424</v>
       </c>
       <c r="U2">
-        <v>264.85462458227516</v>
+        <v>264.85462455854372</v>
       </c>
       <c r="V2">
-        <v>323.10717156817429</v>
+        <v>323.10717154876363</v>
       </c>
       <c r="W2">
-        <v>270.60709899113499</v>
+        <v>270.60709891709485</v>
       </c>
       <c r="X2">
-        <v>276.48905766102348</v>
+        <v>276.48905759579554</v>
       </c>
       <c r="Y2">
-        <v>249.52595609446078</v>
+        <v>249.52595606772405</v>
       </c>
       <c r="Z2">
-        <v>275.97818335156626</v>
+        <v>275.97818332889176</v>
       </c>
       <c r="AA2">
-        <v>333.19307966491863</v>
+        <v>333.19307957334962</v>
       </c>
       <c r="AB2">
-        <v>301.64324716373494</v>
+        <v>301.64324712473973</v>
       </c>
       <c r="AC2">
-        <v>262.36799705417911</v>
+        <v>262.36799702207691</v>
       </c>
       <c r="AD2">
-        <v>278.39989840366218</v>
+        <v>278.39989836169559</v>
       </c>
       <c r="AE2">
-        <v>268.21206941733595</v>
+        <v>268.21206939355261</v>
       </c>
       <c r="AF2">
-        <v>289.66154534456325</v>
+        <v>289.66154531942959</v>
       </c>
       <c r="AG2">
-        <v>287.67321948465997</v>
+        <v>287.67321945895145</v>
       </c>
       <c r="AH2">
-        <v>341.76916931448909</v>
+        <v>341.7691692875822</v>
       </c>
       <c r="AI2">
-        <v>285.10980089664099</v>
+        <v>285.10980088222351</v>
       </c>
       <c r="AJ2">
-        <v>297.11330540489871</v>
+        <v>297.11330536670147</v>
       </c>
       <c r="AK2">
-        <v>314.64290587821461</v>
+        <v>314.64290583537314</v>
       </c>
       <c r="AL2">
-        <v>336.31070395249111</v>
+        <v>336.31070392018512</v>
       </c>
       <c r="AM2">
-        <v>282.68490912822676</v>
+        <v>282.68490907664301</v>
       </c>
       <c r="AN2">
-        <v>258.88015212507293</v>
+        <v>258.88015209052207</v>
       </c>
       <c r="AO2">
-        <v>272.76878149542108</v>
+        <v>272.76878143750372</v>
       </c>
       <c r="AP2">
-        <v>339.85969353810322</v>
+        <v>339.85969349617238</v>
       </c>
       <c r="AQ2">
-        <v>292.57039210299638</v>
+        <v>292.57039203923932</v>
       </c>
       <c r="AR2">
-        <v>333.89073113385211</v>
+        <v>333.89073112107269</v>
       </c>
       <c r="AS2">
-        <v>325.38109930691223</v>
+        <v>325.3810992647891</v>
       </c>
       <c r="AT2">
-        <v>263.171327450729</v>
+        <v>263.17132741203386</v>
       </c>
       <c r="AU2">
-        <v>319.93602990824195</v>
+        <v>319.9360298844457</v>
       </c>
       <c r="AV2">
-        <v>274.6118178181344</v>
+        <v>274.61181773858618</v>
       </c>
       <c r="AW2">
-        <v>279.20724311260142</v>
+        <v>279.20724305838473</v>
       </c>
       <c r="AX2">
-        <v>241.33979112823852</v>
+        <v>241.33979109164312</v>
       </c>
       <c r="AY2">
-        <v>267.12067105993242</v>
+        <v>267.12067103713559</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>328.24040408601718</v>
+        <v>328.2404040928327</v>
       </c>
       <c r="C3">
-        <v>307.76267476783505</v>
+        <v>307.76267475163525</v>
       </c>
       <c r="D3">
-        <v>264.36417175052236</v>
+        <v>264.36417169583825</v>
       </c>
       <c r="E3">
-        <v>256.45419770641098</v>
+        <v>256.45419770046823</v>
       </c>
       <c r="F3">
-        <v>254.59440332775412</v>
+        <v>254.59440330319268</v>
       </c>
       <c r="G3">
-        <v>280.3135712874149</v>
+        <v>280.31357127460507</v>
       </c>
       <c r="H3">
-        <v>286.63858562359519</v>
+        <v>286.63858554612091</v>
       </c>
       <c r="I3">
-        <v>344.67365734788496</v>
+        <v>344.67365736455201</v>
       </c>
       <c r="J3">
-        <v>308.07789687216342</v>
+        <v>308.07789685982056</v>
       </c>
       <c r="K3">
-        <v>293.18449280736809</v>
+        <v>293.18449276919165</v>
       </c>
       <c r="L3">
-        <v>322.29954045567428</v>
+        <v>322.2995404119722</v>
       </c>
       <c r="M3">
-        <v>322.26690190959249</v>
+        <v>322.26704738321848</v>
       </c>
       <c r="N3">
-        <v>308.98462488997177</v>
+        <v>308.9846248534343</v>
       </c>
       <c r="O3">
-        <v>261.16854875988764</v>
+        <v>261.16854873030132</v>
       </c>
       <c r="P3">
-        <v>295.22702812081741</v>
+        <v>295.22702806694542</v>
       </c>
       <c r="Q3">
-        <v>346.52084469553017</v>
+        <v>346.52084464983704</v>
       </c>
       <c r="R3">
-        <v>290.36940506856894</v>
+        <v>290.36940500889131</v>
       </c>
       <c r="S3">
-        <v>335.82773344135433</v>
+        <v>335.82773342217149</v>
       </c>
       <c r="T3">
-        <v>301.77520190676074</v>
+        <v>301.77520187436187</v>
       </c>
       <c r="U3">
-        <v>262.61777472866186</v>
+        <v>262.61777470120029</v>
       </c>
       <c r="V3">
-        <v>306.38474653588673</v>
+        <v>306.38474651097573</v>
       </c>
       <c r="W3">
-        <v>297.85096621177934</v>
+        <v>297.85096616539397</v>
       </c>
       <c r="X3">
-        <v>270.33686673914457</v>
+        <v>270.33686671305543</v>
       </c>
       <c r="Y3">
-        <v>253.07734887033652</v>
+        <v>253.07734882211213</v>
       </c>
       <c r="Z3">
-        <v>277.14055517973384</v>
+        <v>277.14055514976064</v>
       </c>
       <c r="AA3">
-        <v>342.28631076200395</v>
+        <v>342.28631065701222</v>
       </c>
       <c r="AB3">
-        <v>302.93447565850727</v>
+        <v>302.93447561102937</v>
       </c>
       <c r="AC3">
-        <v>266.68886483705268</v>
+        <v>266.68886479160386</v>
       </c>
       <c r="AD3">
-        <v>255.11603250854637</v>
+        <v>255.1160324232786</v>
       </c>
       <c r="AE3">
-        <v>264.87739689792039</v>
+        <v>264.87739687137889</v>
       </c>
       <c r="AF3">
-        <v>283.77163518080175</v>
+        <v>283.77163516020192</v>
       </c>
       <c r="AG3">
-        <v>290.91617447395129</v>
+        <v>290.91617442266829</v>
       </c>
       <c r="AH3">
-        <v>342.35391664524974</v>
+        <v>342.353916608877</v>
       </c>
       <c r="AI3">
-        <v>316.11717516594769</v>
+        <v>316.11717511908114</v>
       </c>
       <c r="AJ3">
-        <v>298.89879774181156</v>
+        <v>298.89879770067603</v>
       </c>
       <c r="AK3">
-        <v>321.09759860005136</v>
+        <v>321.09759856943822</v>
       </c>
       <c r="AL3">
-        <v>330.98401131981115</v>
+        <v>330.98401127363525</v>
       </c>
       <c r="AM3">
-        <v>315.01383295410608</v>
+        <v>315.01383289457624</v>
       </c>
       <c r="AN3">
-        <v>255.34581347062237</v>
+        <v>255.34581346004452</v>
       </c>
       <c r="AO3">
-        <v>248.24879448601854</v>
+        <v>248.24879443781916</v>
       </c>
       <c r="AP3">
-        <v>346.23935804092451</v>
+        <v>346.23935799255509</v>
       </c>
       <c r="AQ3">
-        <v>299.48732317684539</v>
+        <v>299.4873231292097</v>
       </c>
       <c r="AR3">
-        <v>342.56212176899987</v>
+        <v>342.56212175378738</v>
       </c>
       <c r="AS3">
-        <v>306.32257938211978</v>
+        <v>306.32257934106428</v>
       </c>
       <c r="AT3">
-        <v>263.92991411364005</v>
+        <v>263.92991407823479</v>
       </c>
       <c r="AU3">
-        <v>302.60116288657463</v>
+        <v>302.6011628606152</v>
       </c>
       <c r="AV3">
-        <v>295.90128823689065</v>
+        <v>295.9012881509525</v>
       </c>
       <c r="AW3">
-        <v>276.10664707649681</v>
+        <v>276.10664704110445</v>
       </c>
       <c r="AX3">
-        <v>276.17407492765869</v>
+        <v>276.17407488069631</v>
       </c>
       <c r="AY3">
-        <v>274.24071947108621</v>
+        <v>274.24071943972746</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_length_msc_GM_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_GM_ind_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,59 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>326.056395097012</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>291.02034370125631</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>243.41099240246257</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>252.48863809617797</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>239.01999212313589</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>280.60674313485049</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>291.94227388693059</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>338.80777449093694</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>304.91490888688554</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>307.07072768231689</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>311.69542891037554</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>333.49941559199783</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>283.28127338430852</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>260.47002222422134</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>261.4307664855836</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>344.14818098133327</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>290.73128431545058</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>328.94728235329711</v>
@@ -588,55 +477,55 @@
         <v>275.97818332889176</v>
       </c>
       <c r="AA2">
-        <v>333.19307957334962</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>301.64324712473973</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>262.36799702207691</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>278.39989836169559</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>268.21206939355261</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>289.66154531942959</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>287.67321945895145</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>341.7691692875822</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>285.10980088222351</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>297.11330536670147</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>314.64290583537314</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>336.31070392018512</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>282.68490907664301</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>258.88015209052207</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>272.76878143750372</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>339.85969349617238</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>292.57039203923932</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>333.89073112107269</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>328.2404040928327</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>307.76267475163525</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>264.36417169583825</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>256.45419770046823</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>254.59440330319268</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>280.31357127460507</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>286.63858554612091</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>344.67365736455201</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>308.07789685982056</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>293.18449276919165</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>322.2995404119722</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>322.26704738321848</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>308.9846248534343</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>261.16854873030132</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>295.22702806694542</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>346.52084464983704</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>290.36940500889131</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>335.82773342217149</v>
@@ -743,55 +629,55 @@
         <v>277.14055514976064</v>
       </c>
       <c r="AA3">
-        <v>342.28631065701222</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>302.93447561102937</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>266.68886479160386</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>255.1160324232786</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>264.87739687137889</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>283.77163516020192</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>290.91617442266829</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>342.353916608877</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>316.11717511908114</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>298.89879770067603</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>321.09759856943822</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>330.98401127363525</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>315.01383289457624</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>255.34581346004452</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>248.24879443781916</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>346.23935799255509</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>299.4873231292097</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>342.56212175378738</v>

--- a/data_output/prism_passive/all_passive_out_length_msc_GM_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_GM_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>326.05639512911063</v>
+        <v>260.47002222422134</v>
       </c>
       <c r="C2">
-        <v>291.0203437315057</v>
+        <v>290.73128431545058</v>
       </c>
       <c r="D2">
-        <v>243.41099244233948</v>
+        <v>258.88015209052207</v>
       </c>
       <c r="E2">
-        <v>252.48863815456619</v>
+        <v>292.57039203923932</v>
       </c>
       <c r="F2">
         <v>239.01999215005608</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>328.24040408601718</v>
+        <v>261.16854873030132</v>
       </c>
       <c r="C3">
-        <v>307.76267476783505</v>
+        <v>290.36940500889131</v>
       </c>
       <c r="D3">
-        <v>264.36417175052236</v>
+        <v>255.34581346004452</v>
       </c>
       <c r="E3">
-        <v>256.45419770641098</v>
+        <v>299.48533619312377</v>
       </c>
       <c r="F3">
         <v>254.59440332775412</v>

--- a/data_output/prism_passive/all_passive_out_length_msc_GM_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_GM_ind_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>326.05639512911063</v>
+        <v>285.29093073464242</v>
       </c>
       <c r="C2">
-        <v>291.0203437315057</v>
+        <v>264.61263669867992</v>
       </c>
       <c r="D2">
-        <v>243.41099244233948</v>
+        <v>284.30665607591612</v>
       </c>
       <c r="E2">
-        <v>252.48863815456619</v>
+        <v>262.21989162037539</v>
       </c>
       <c r="F2">
         <v>239.01999215005608</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>328.24040408601718</v>
+        <v>308.9846248534343</v>
       </c>
       <c r="C3">
-        <v>307.76267476783505</v>
+        <v>261.16854873030132</v>
       </c>
       <c r="D3">
-        <v>264.36417175052236</v>
+        <v>315.01383289457624</v>
       </c>
       <c r="E3">
-        <v>256.45419770641098</v>
+        <v>255.34581346004452</v>
       </c>
       <c r="F3">
         <v>254.59440332775412</v>

--- a/data_output/prism_passive/all_passive_out_length_msc_GM_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_GM_ind_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>326.2939163221015</v>
+      </c>
+      <c r="C2">
+        <v>291.02034370125631</v>
+      </c>
+      <c r="D2">
+        <v>247.91173700703334</v>
+      </c>
+      <c r="E2">
+        <v>254.70566132383559</v>
+      </c>
+      <c r="F2">
+        <v>239.01999212313589</v>
+      </c>
+      <c r="G2">
+        <v>280.60674313485049</v>
+      </c>
+      <c r="H2">
+        <v>292.15333873255292</v>
+      </c>
+      <c r="I2">
+        <v>340.27351426241916</v>
+      </c>
+      <c r="J2">
+        <v>305.07798354103682</v>
+      </c>
+      <c r="K2">
+        <v>309.39499324914823</v>
+      </c>
+      <c r="L2">
+        <v>313.95078773672935</v>
+      </c>
+      <c r="M2">
+        <v>333.49941559199783</v>
+      </c>
+      <c r="N2">
         <v>285.29093073464242</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>264.61263669867992</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>261.4307664855836</v>
+      </c>
+      <c r="Q2">
+        <v>344.14818098133327</v>
+      </c>
+      <c r="R2">
+        <v>290.73128431545058</v>
+      </c>
+      <c r="S2">
+        <v>329.18828591103079</v>
+      </c>
+      <c r="T2">
+        <v>328.71396131608424</v>
+      </c>
+      <c r="U2">
+        <v>265.57666806431337</v>
+      </c>
+      <c r="V2">
+        <v>326.2413312094277</v>
+      </c>
+      <c r="W2">
+        <v>276.81464319522092</v>
+      </c>
+      <c r="X2">
+        <v>278.40662013342717</v>
+      </c>
+      <c r="Y2">
+        <v>250.00150865997458</v>
+      </c>
+      <c r="Z2">
+        <v>275.97818332889176</v>
+      </c>
+      <c r="AA2">
+        <v>333.67765277332416</v>
+      </c>
+      <c r="AB2">
+        <v>301.64324712473973</v>
+      </c>
+      <c r="AC2">
+        <v>265.2717987877113</v>
+      </c>
+      <c r="AD2">
+        <v>280.68771109405395</v>
+      </c>
+      <c r="AE2">
+        <v>268.21206939355261</v>
+      </c>
+      <c r="AF2">
+        <v>289.66154531942959</v>
+      </c>
+      <c r="AG2">
+        <v>288.06011195017027</v>
+      </c>
+      <c r="AH2">
+        <v>344.10411716573594</v>
+      </c>
+      <c r="AI2">
+        <v>285.19860188106281</v>
+      </c>
+      <c r="AJ2">
+        <v>299.91287796768984</v>
+      </c>
+      <c r="AK2">
+        <v>317.26182193991065</v>
+      </c>
+      <c r="AL2">
+        <v>336.31070392018512</v>
+      </c>
+      <c r="AM2">
         <v>284.30665607591612</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>262.21989162037539</v>
       </c>
-      <c r="F2">
-        <v>239.01999215005608</v>
-      </c>
-      <c r="G2">
-        <v>280.60674319616112</v>
-      </c>
-      <c r="H2">
-        <v>291.94227393919607</v>
-      </c>
-      <c r="I2">
-        <v>338.80777453166274</v>
-      </c>
-      <c r="J2">
-        <v>304.91490892291245</v>
-      </c>
-      <c r="K2">
-        <v>307.07072768932903</v>
-      </c>
-      <c r="L2">
-        <v>311.69542895866533</v>
-      </c>
-      <c r="M2">
-        <v>333.49941564766937</v>
-      </c>
-      <c r="N2">
-        <v>283.28127345789596</v>
-      </c>
-      <c r="O2">
-        <v>260.47002226933307</v>
-      </c>
-      <c r="P2">
-        <v>261.43076653044864</v>
-      </c>
-      <c r="Q2">
-        <v>344.14818103581274</v>
-      </c>
-      <c r="R2">
-        <v>290.73128437066498</v>
-      </c>
-      <c r="S2">
-        <v>328.94728237958577</v>
-      </c>
-      <c r="T2">
-        <v>328.71396137076169</v>
-      </c>
-      <c r="U2">
-        <v>264.85462458227516</v>
-      </c>
-      <c r="V2">
-        <v>323.10717156817429</v>
-      </c>
-      <c r="W2">
-        <v>270.64016424167119</v>
-      </c>
-      <c r="X2">
-        <v>276.48905766102348</v>
-      </c>
-      <c r="Y2">
-        <v>249.52595609446078</v>
-      </c>
-      <c r="Z2">
-        <v>275.97818335156626</v>
-      </c>
-      <c r="AA2">
-        <v>333.19307966491863</v>
-      </c>
-      <c r="AB2">
-        <v>301.64324716373494</v>
-      </c>
-      <c r="AC2">
-        <v>262.36799705417911</v>
-      </c>
-      <c r="AD2">
-        <v>278.39989840366218</v>
-      </c>
-      <c r="AE2">
-        <v>268.21206941733595</v>
-      </c>
-      <c r="AF2">
-        <v>289.66154534456325</v>
-      </c>
-      <c r="AG2">
-        <v>287.67321948465997</v>
-      </c>
-      <c r="AH2">
-        <v>341.76916931448909</v>
-      </c>
-      <c r="AI2">
-        <v>285.10980089664099</v>
-      </c>
-      <c r="AJ2">
-        <v>297.11330540489871</v>
-      </c>
-      <c r="AK2">
-        <v>314.64290587821461</v>
-      </c>
-      <c r="AL2">
-        <v>336.31070395249111</v>
-      </c>
-      <c r="AM2">
-        <v>282.68490912822676</v>
-      </c>
-      <c r="AN2">
-        <v>258.88015212507293</v>
-      </c>
       <c r="AO2">
-        <v>272.76878149542108</v>
+        <v>272.76878143750372</v>
       </c>
       <c r="AP2">
-        <v>340.28404331251352</v>
+        <v>340.28404325107067</v>
       </c>
       <c r="AQ2">
-        <v>292.57039210299638</v>
+        <v>292.57039203923932</v>
       </c>
       <c r="AR2">
-        <v>333.89073113385211</v>
+        <v>334.32459524249577</v>
       </c>
       <c r="AS2">
-        <v>325.38109930691223</v>
+        <v>325.3810992647891</v>
       </c>
       <c r="AT2">
-        <v>263.171327450729</v>
+        <v>264.72581205690847</v>
       </c>
       <c r="AU2">
-        <v>319.93602990824195</v>
+        <v>323.86695759716184</v>
       </c>
       <c r="AV2">
-        <v>274.64733044880575</v>
+        <v>280.27814247406104</v>
       </c>
       <c r="AW2">
-        <v>279.20724311260142</v>
+        <v>281.54053058319073</v>
       </c>
       <c r="AX2">
-        <v>241.33979112823852</v>
+        <v>241.97462698705829</v>
       </c>
       <c r="AY2">
-        <v>267.12067105993242</v>
+        <v>267.12067103713559</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>328.2404040928327</v>
+      </c>
+      <c r="C3">
+        <v>308.18160721983111</v>
+      </c>
+      <c r="D3">
+        <v>264.36417169583825</v>
+      </c>
+      <c r="E3">
+        <v>256.45419770046823</v>
+      </c>
+      <c r="F3">
+        <v>255.32887527569761</v>
+      </c>
+      <c r="G3">
+        <v>280.83174172532802</v>
+      </c>
+      <c r="H3">
+        <v>286.63858554612091</v>
+      </c>
+      <c r="I3">
+        <v>344.67365736455201</v>
+      </c>
+      <c r="J3">
+        <v>308.07789685982056</v>
+      </c>
+      <c r="K3">
+        <v>293.18449276919165</v>
+      </c>
+      <c r="L3">
+        <v>322.2995404119722</v>
+      </c>
+      <c r="M3">
+        <v>325.18642421941615</v>
+      </c>
+      <c r="N3">
         <v>308.9846248534343</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>261.16854873030132</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>296.08808042569541</v>
+      </c>
+      <c r="Q3">
+        <v>347.30439160176132</v>
+      </c>
+      <c r="R3">
+        <v>294.70737354392304</v>
+      </c>
+      <c r="S3">
+        <v>335.82773342217149</v>
+      </c>
+      <c r="T3">
+        <v>302.65770620445903</v>
+      </c>
+      <c r="U3">
+        <v>262.61777470120029</v>
+      </c>
+      <c r="V3">
+        <v>306.38474651097573</v>
+      </c>
+      <c r="W3">
+        <v>297.71390296527375</v>
+      </c>
+      <c r="X3">
+        <v>270.33686671305543</v>
+      </c>
+      <c r="Y3">
+        <v>253.07734882211213</v>
+      </c>
+      <c r="Z3">
+        <v>277.4701837841418</v>
+      </c>
+      <c r="AA3">
+        <v>342.28631065701222</v>
+      </c>
+      <c r="AB3">
+        <v>304.63068964202199</v>
+      </c>
+      <c r="AC3">
+        <v>266.68886479160386</v>
+      </c>
+      <c r="AD3">
+        <v>255.1160324232786</v>
+      </c>
+      <c r="AE3">
+        <v>265.62999839905018</v>
+      </c>
+      <c r="AF3">
+        <v>284.98859999470346</v>
+      </c>
+      <c r="AG3">
+        <v>290.91617442266829</v>
+      </c>
+      <c r="AH3">
+        <v>342.11519741348661</v>
+      </c>
+      <c r="AI3">
+        <v>316.11717511908114</v>
+      </c>
+      <c r="AJ3">
+        <v>298.89879770067603</v>
+      </c>
+      <c r="AK3">
+        <v>321.09759856943822</v>
+      </c>
+      <c r="AL3">
+        <v>334.12783994774344</v>
+      </c>
+      <c r="AM3">
         <v>315.01383289457624</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>255.34581346004452</v>
       </c>
-      <c r="F3">
-        <v>254.59440332775412</v>
-      </c>
-      <c r="G3">
-        <v>280.3135712874149</v>
-      </c>
-      <c r="H3">
-        <v>286.63858562359519</v>
-      </c>
-      <c r="I3">
-        <v>344.67365734788496</v>
-      </c>
-      <c r="J3">
-        <v>308.07789687216342</v>
-      </c>
-      <c r="K3">
-        <v>293.18449280736809</v>
-      </c>
-      <c r="L3">
-        <v>322.29954045567428</v>
-      </c>
-      <c r="M3">
-        <v>322.26690190959249</v>
-      </c>
-      <c r="N3">
-        <v>308.98462488997177</v>
-      </c>
-      <c r="O3">
-        <v>261.16854875988764</v>
-      </c>
-      <c r="P3">
-        <v>295.22702812081741</v>
-      </c>
-      <c r="Q3">
-        <v>346.52084469553017</v>
-      </c>
-      <c r="R3">
-        <v>290.36940506856894</v>
-      </c>
-      <c r="S3">
-        <v>335.82773344135433</v>
-      </c>
-      <c r="T3">
-        <v>301.77520190676074</v>
-      </c>
-      <c r="U3">
-        <v>262.61777472866186</v>
-      </c>
-      <c r="V3">
-        <v>306.38474653588673</v>
-      </c>
-      <c r="W3">
-        <v>297.71390318717567</v>
-      </c>
-      <c r="X3">
-        <v>270.33686673914457</v>
-      </c>
-      <c r="Y3">
-        <v>253.07734887033652</v>
-      </c>
-      <c r="Z3">
-        <v>277.14055517973384</v>
-      </c>
-      <c r="AA3">
-        <v>342.28631076200395</v>
-      </c>
-      <c r="AB3">
-        <v>302.93447565850727</v>
-      </c>
-      <c r="AC3">
-        <v>266.68886483705268</v>
-      </c>
-      <c r="AD3">
-        <v>255.11603250854637</v>
-      </c>
-      <c r="AE3">
-        <v>264.87739689792039</v>
-      </c>
-      <c r="AF3">
-        <v>283.77163518080175</v>
-      </c>
-      <c r="AG3">
-        <v>290.91617447395129</v>
-      </c>
-      <c r="AH3">
-        <v>342.1151974523367</v>
-      </c>
-      <c r="AI3">
-        <v>316.11717516594769</v>
-      </c>
-      <c r="AJ3">
-        <v>298.89879774181156</v>
-      </c>
-      <c r="AK3">
-        <v>321.09759860005136</v>
-      </c>
-      <c r="AL3">
-        <v>330.98401131981115</v>
-      </c>
-      <c r="AM3">
-        <v>315.01383295410608</v>
-      </c>
-      <c r="AN3">
-        <v>255.34581347062237</v>
-      </c>
       <c r="AO3">
-        <v>248.24879448601854</v>
+        <v>249.45732414100254</v>
       </c>
       <c r="AP3">
-        <v>346.23935804092451</v>
+        <v>347.02077948849046</v>
       </c>
       <c r="AQ3">
-        <v>299.48533624380713</v>
+        <v>303.44048945715053</v>
       </c>
       <c r="AR3">
-        <v>342.56212176899987</v>
+        <v>342.56212175378738</v>
       </c>
       <c r="AS3">
-        <v>306.32257938211978</v>
+        <v>307.41238310299309</v>
       </c>
       <c r="AT3">
-        <v>263.92991411364005</v>
+        <v>263.92991407823479</v>
       </c>
       <c r="AU3">
-        <v>302.60116288657463</v>
+        <v>302.6011628606152</v>
       </c>
       <c r="AV3">
-        <v>295.9398619671781</v>
+        <v>295.93986188301835</v>
       </c>
       <c r="AW3">
-        <v>276.10664707649681</v>
+        <v>276.10664704110445</v>
       </c>
       <c r="AX3">
-        <v>276.17407492765869</v>
+        <v>276.17407488069631</v>
       </c>
       <c r="AY3">
-        <v>274.24071947108621</v>
+        <v>274.49747991089095</v>
       </c>
     </row>
   </sheetData>
